--- a/Code/Results/Cases/Case_3_252/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_252/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8773162445647813</v>
+        <v>0.5403633160001675</v>
       </c>
       <c r="C2">
-        <v>0.3398484599399865</v>
+        <v>0.2294126817136259</v>
       </c>
       <c r="D2">
-        <v>0.08132100573603651</v>
+        <v>0.08405762848991571</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.087627976810069</v>
+        <v>3.418410032993052</v>
       </c>
       <c r="G2">
-        <v>0.0008375584288875191</v>
+        <v>0.002562522143272855</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.625445136507835</v>
+        <v>1.793102721377323</v>
       </c>
       <c r="J2">
-        <v>0.424271310166759</v>
+        <v>0.3562383099905162</v>
       </c>
       <c r="K2">
-        <v>1.208574860946612</v>
+        <v>0.7682098671597259</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7588948777491566</v>
+        <v>0.5142995554442678</v>
       </c>
       <c r="C3">
-        <v>0.2963198934563422</v>
+        <v>0.2196148699795515</v>
       </c>
       <c r="D3">
-        <v>0.07013858257554517</v>
+        <v>0.08275542837323968</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.857106378799969</v>
+        <v>3.365981028969955</v>
       </c>
       <c r="G3">
-        <v>0.0008449231343045401</v>
+        <v>0.002566957033344344</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.525661756075692</v>
+        <v>1.768429233866755</v>
       </c>
       <c r="J3">
-        <v>0.3744916783912373</v>
+        <v>0.3456689397605714</v>
       </c>
       <c r="K3">
-        <v>1.047268824904506</v>
+        <v>0.7325232995724775</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6872878416573087</v>
+        <v>0.4987180274170555</v>
       </c>
       <c r="C4">
-        <v>0.2701483392662851</v>
+        <v>0.2137535101394121</v>
       </c>
       <c r="D4">
-        <v>0.06337636266897562</v>
+        <v>0.08203794720451185</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.719832666861279</v>
+        <v>3.335049297300969</v>
       </c>
       <c r="G4">
-        <v>0.0008495686143505991</v>
+        <v>0.002569822436095227</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.466375501127999</v>
+        <v>1.753800959148847</v>
       </c>
       <c r="J4">
-        <v>0.3446445535626879</v>
+        <v>0.3393993371741573</v>
       </c>
       <c r="K4">
-        <v>0.9498977799073032</v>
+        <v>0.7111861989267538</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6583503041899803</v>
+        <v>0.4924743911035137</v>
       </c>
       <c r="C5">
-        <v>0.2596064212110889</v>
+        <v>0.2114036467890799</v>
       </c>
       <c r="D5">
-        <v>0.06064360849833861</v>
+        <v>0.08176622478332263</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.664869860484288</v>
+        <v>3.322760078369711</v>
       </c>
       <c r="G5">
-        <v>0.0008514939888028967</v>
+        <v>0.002571026029129726</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.442670550931282</v>
+        <v>1.747970301765008</v>
       </c>
       <c r="J5">
-        <v>0.3326426944616827</v>
+        <v>0.3368995280341096</v>
       </c>
       <c r="K5">
-        <v>0.9105873347585316</v>
+        <v>0.7026353740993443</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6535589542809532</v>
+        <v>0.4914440377148424</v>
       </c>
       <c r="C6">
-        <v>0.2578629299094075</v>
+        <v>0.211015785521198</v>
       </c>
       <c r="D6">
-        <v>0.06019113132762755</v>
+        <v>0.08172235368840575</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.655799692507884</v>
+        <v>3.320738499371359</v>
       </c>
       <c r="G6">
-        <v>0.0008518156815919848</v>
+        <v>0.002571228057680952</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.438760611928288</v>
+        <v>1.747009988539972</v>
       </c>
       <c r="J6">
-        <v>0.3306589851843853</v>
+        <v>0.3364877583382651</v>
       </c>
       <c r="K6">
-        <v>0.9040807309171441</v>
+        <v>0.701224218883624</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.686896640346248</v>
+        <v>0.4986333946210664</v>
       </c>
       <c r="C7">
-        <v>0.2700056891643499</v>
+        <v>0.213721662638136</v>
       </c>
       <c r="D7">
-        <v>0.06333941909760199</v>
+        <v>0.08203419899599851</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.719087583386155</v>
+        <v>3.334882283756627</v>
       </c>
       <c r="G7">
-        <v>0.0008495944483712157</v>
+        <v>0.002569838522635991</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.466054022076392</v>
+        <v>1.753721797366723</v>
       </c>
       <c r="J7">
-        <v>0.3444820646169404</v>
+        <v>0.3393654010487808</v>
       </c>
       <c r="K7">
-        <v>0.949366196125851</v>
+        <v>0.7110702959350022</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8362335912714798</v>
+        <v>0.5312889391630051</v>
       </c>
       <c r="C8">
-        <v>0.3247142908446676</v>
+        <v>0.2260022149123415</v>
       </c>
       <c r="D8">
-        <v>0.07744174208629317</v>
+        <v>0.08359160512893737</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.007198444181682</v>
+        <v>3.40007033929173</v>
       </c>
       <c r="G8">
-        <v>0.0008400729191658572</v>
+        <v>0.00256402181874682</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.590601415784406</v>
+        <v>1.784486718412424</v>
       </c>
       <c r="J8">
-        <v>0.4069461473588092</v>
+        <v>0.3525481832290041</v>
       </c>
       <c r="K8">
-        <v>1.152577442772412</v>
+        <v>0.7557857019419885</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.139573687414213</v>
+        <v>0.5986810493199073</v>
       </c>
       <c r="C9">
-        <v>0.4372199658798763</v>
+        <v>0.2513198730108002</v>
       </c>
       <c r="D9">
-        <v>0.1060803667155881</v>
+        <v>0.08729651905011337</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.610787083703798</v>
+        <v>3.537959364043047</v>
       </c>
       <c r="G9">
-        <v>0.0008223200833371628</v>
+        <v>0.002553739372163563</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.852709200281708</v>
+        <v>1.848984991112914</v>
       </c>
       <c r="J9">
-        <v>0.536098368397333</v>
+        <v>0.3801574325953254</v>
       </c>
       <c r="K9">
-        <v>1.566890090379133</v>
+        <v>0.8480501159391736</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.371516693469772</v>
+        <v>0.6502576733289231</v>
       </c>
       <c r="C10">
-        <v>0.5243325033734152</v>
+        <v>0.2706892992007965</v>
       </c>
       <c r="D10">
-        <v>0.1279704191120175</v>
+        <v>0.09041542087480536</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.085105352962074</v>
+        <v>3.645491386753747</v>
       </c>
       <c r="G10">
-        <v>0.0008097432477776033</v>
+        <v>0.002546862435469042</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.059491733019641</v>
+        <v>1.898962735687391</v>
       </c>
       <c r="J10">
-        <v>0.6365445315990996</v>
+        <v>0.4015328741461133</v>
       </c>
       <c r="K10">
-        <v>1.884891137093632</v>
+        <v>0.9186621139127737</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.479686051666278</v>
+        <v>0.6741738695352808</v>
       </c>
       <c r="C11">
-        <v>0.5652539661001583</v>
+        <v>0.2796713322285029</v>
       </c>
       <c r="D11">
-        <v>0.1381767348758558</v>
+        <v>0.0919205681261559</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.309441050400181</v>
+        <v>3.695783593004535</v>
       </c>
       <c r="G11">
-        <v>0.0008040993870411419</v>
+        <v>0.002543879425119745</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.157486616977579</v>
+        <v>1.922272585356311</v>
       </c>
       <c r="J11">
-        <v>0.6838282997398153</v>
+        <v>0.4114983735017574</v>
       </c>
       <c r="K11">
-        <v>2.033520065429798</v>
+        <v>0.9514070552000078</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.521093453200677</v>
+        <v>0.6832958054264395</v>
       </c>
       <c r="C12">
-        <v>0.5809667556589488</v>
+        <v>0.2830973940926071</v>
       </c>
       <c r="D12">
-        <v>0.1420833479662775</v>
+        <v>0.09250294307778972</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.395798294810618</v>
+        <v>3.715027189942873</v>
       </c>
       <c r="G12">
-        <v>0.0008019711300562598</v>
+        <v>0.002542770611540796</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.195238805469089</v>
+        <v>1.931182842852209</v>
       </c>
       <c r="J12">
-        <v>0.7019983517483155</v>
+        <v>0.4153071114753288</v>
       </c>
       <c r="K12">
-        <v>2.090468117755705</v>
+        <v>0.963896830646064</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.512154691713675</v>
+        <v>0.6813283225964426</v>
       </c>
       <c r="C13">
-        <v>0.5775725562991454</v>
+        <v>0.2823584258589733</v>
       </c>
       <c r="D13">
-        <v>0.1412400310732949</v>
+        <v>0.09237696645288906</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.377134175489459</v>
+        <v>3.710873864969329</v>
       </c>
       <c r="G13">
-        <v>0.0008024291275164415</v>
+        <v>0.002543008491482815</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.187078215551921</v>
+        <v>1.929260142790952</v>
       </c>
       <c r="J13">
-        <v>0.6980727110883009</v>
+        <v>0.4144852698669581</v>
       </c>
       <c r="K13">
-        <v>2.078172103313136</v>
+        <v>0.9612029263642512</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.483083331336388</v>
+        <v>0.6749230252810605</v>
       </c>
       <c r="C14">
-        <v>0.5665421337682517</v>
+        <v>0.2799526989822141</v>
       </c>
       <c r="D14">
-        <v>0.138497261627279</v>
+        <v>0.09196823182051617</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.316516457578075</v>
+        <v>3.697362779208845</v>
       </c>
       <c r="G14">
-        <v>0.0008039241280653275</v>
+        <v>0.002543787786143428</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.160579128243484</v>
+        <v>1.923003963777347</v>
       </c>
       <c r="J14">
-        <v>0.6853176333270881</v>
+        <v>0.4118110172997262</v>
       </c>
       <c r="K14">
-        <v>2.03819129401856</v>
+        <v>0.9524327911456112</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.465336394700472</v>
+        <v>0.6710081161056678</v>
       </c>
       <c r="C15">
-        <v>0.5598148814308104</v>
+        <v>0.2784823524781359</v>
       </c>
       <c r="D15">
-        <v>0.1368228570387231</v>
+        <v>0.09171948578780587</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.279575011728696</v>
+        <v>3.689112806132329</v>
       </c>
       <c r="G15">
-        <v>0.0008048409555048537</v>
+        <v>0.002544267830702575</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.144433989871843</v>
+        <v>1.919182744859157</v>
       </c>
       <c r="J15">
-        <v>0.6775403985076451</v>
+        <v>0.4101775288523868</v>
       </c>
       <c r="K15">
-        <v>2.013791572184005</v>
+        <v>0.947072558736437</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.364506334803082</v>
+        <v>0.6487038361024418</v>
       </c>
       <c r="C16">
-        <v>0.5216867589598735</v>
+        <v>0.2701057560375943</v>
       </c>
       <c r="D16">
-        <v>0.1273089061568271</v>
+        <v>0.0903187927145126</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.070631303821443</v>
+        <v>3.642232455445338</v>
       </c>
       <c r="G16">
-        <v>0.0008101134641650495</v>
+        <v>0.002547060297254788</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.05317311248055</v>
+        <v>1.897451005024394</v>
       </c>
       <c r="J16">
-        <v>0.6334894086616885</v>
+        <v>0.4008864914073911</v>
       </c>
       <c r="K16">
-        <v>1.875265595505681</v>
+        <v>0.9165347258729071</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.303374099698516</v>
+        <v>0.6351371945945914</v>
       </c>
       <c r="C17">
-        <v>0.4986483890791362</v>
+        <v>0.2650108700676697</v>
       </c>
       <c r="D17">
-        <v>0.1215400651823728</v>
+        <v>0.0894816214777876</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.944762859656805</v>
+        <v>3.61382602857401</v>
       </c>
       <c r="G17">
-        <v>0.0008133663270608821</v>
+        <v>0.00254881053079501</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.998246910647325</v>
+        <v>1.884266968601295</v>
       </c>
       <c r="J17">
-        <v>0.6068971635338727</v>
+        <v>0.3952488327885391</v>
       </c>
       <c r="K17">
-        <v>1.791364837611951</v>
+        <v>0.897960622251361</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.268458330420486</v>
+        <v>0.6273767192594164</v>
       </c>
       <c r="C18">
-        <v>0.4855170345798285</v>
+        <v>0.2620964890664652</v>
       </c>
       <c r="D18">
-        <v>0.1182449649844131</v>
+        <v>0.08900823011617831</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.873161352599368</v>
+        <v>3.597616781726515</v>
       </c>
       <c r="G18">
-        <v>0.0008152447175771693</v>
+        <v>0.002549830905870624</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.967019357959998</v>
+        <v>1.87673791439272</v>
       </c>
       <c r="J18">
-        <v>0.5917492960295476</v>
+        <v>0.3920289349961052</v>
       </c>
       <c r="K18">
-        <v>1.743474584802669</v>
+        <v>0.8873359241087257</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.256676854141176</v>
+        <v>0.6247564848093532</v>
       </c>
       <c r="C19">
-        <v>0.4810906676799505</v>
+        <v>0.2611124824087199</v>
       </c>
       <c r="D19">
-        <v>0.1171330776037394</v>
+        <v>0.0888493440832292</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.84904981416247</v>
+        <v>3.592150792067514</v>
       </c>
       <c r="G19">
-        <v>0.0008158820469973038</v>
+        <v>0.002550178741489517</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.95650660312532</v>
+        <v>1.874197969348486</v>
       </c>
       <c r="J19">
-        <v>0.5866447571559235</v>
+        <v>0.3909426296285545</v>
       </c>
       <c r="K19">
-        <v>1.727320134828972</v>
+        <v>0.8837486436488007</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.309855844356719</v>
+        <v>0.6365769666418544</v>
       </c>
       <c r="C20">
-        <v>0.5010882631520133</v>
+        <v>0.2655515654996634</v>
       </c>
       <c r="D20">
-        <v>0.1221517482991032</v>
+        <v>0.08956989869209053</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.958078323913526</v>
+        <v>3.61683654200408</v>
       </c>
       <c r="G20">
-        <v>0.0008130193003426704</v>
+        <v>0.002548622799659998</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.004055627993353</v>
+        <v>1.885664832434841</v>
       </c>
       <c r="J20">
-        <v>0.6097124624081971</v>
+        <v>0.3958466163606005</v>
       </c>
       <c r="K20">
-        <v>1.80025755718745</v>
+        <v>0.8999317962104669</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.491609642455728</v>
+        <v>0.6768026404566569</v>
       </c>
       <c r="C21">
-        <v>0.5697758906931654</v>
+        <v>0.280658645645758</v>
       </c>
       <c r="D21">
-        <v>0.139301696386525</v>
+        <v>0.09208795038445317</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.334281693760119</v>
+        <v>3.701325900916743</v>
       </c>
       <c r="G21">
-        <v>0.0008034847857817473</v>
+        <v>0.002543558325214231</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.168344410125187</v>
+        <v>1.924839288403419</v>
       </c>
       <c r="J21">
-        <v>0.6890566152947315</v>
+        <v>0.4125955575645008</v>
       </c>
       <c r="K21">
-        <v>2.049915752229509</v>
+        <v>0.9550063475446962</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.613031373536671</v>
+        <v>0.7034736695147217</v>
       </c>
       <c r="C22">
-        <v>0.6159475656306199</v>
+        <v>0.2906764179596735</v>
       </c>
       <c r="D22">
-        <v>0.1507565798629145</v>
+        <v>0.09380596564911059</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.588445201715132</v>
+        <v>3.757705272303582</v>
       </c>
       <c r="G22">
-        <v>0.0007973044009613787</v>
+        <v>0.002540369513800956</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.279511846645889</v>
+        <v>1.950928050066707</v>
       </c>
       <c r="J22">
-        <v>0.742475624254169</v>
+        <v>0.4237462051919039</v>
       </c>
       <c r="K22">
-        <v>2.217013530108972</v>
+        <v>0.9915253826034416</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.547962021103245</v>
+        <v>0.6892039065488405</v>
       </c>
       <c r="C23">
-        <v>0.591176543792642</v>
+        <v>0.2853164618238395</v>
       </c>
       <c r="D23">
-        <v>0.1446181742445845</v>
+        <v>0.09288241315186951</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.451971338437232</v>
+        <v>3.727507918851927</v>
       </c>
       <c r="G23">
-        <v>0.0008005991123410348</v>
+        <v>0.00254206039755825</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.219803912351551</v>
+        <v>1.936959293456539</v>
       </c>
       <c r="J23">
-        <v>0.713808777683397</v>
+        <v>0.4177761181758655</v>
       </c>
       <c r="K23">
-        <v>2.127436119323022</v>
+        <v>0.9719863589715487</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.306924736032329</v>
+        <v>0.6359259237089532</v>
       </c>
       <c r="C24">
-        <v>0.4999848441706831</v>
+        <v>0.2653070712083831</v>
       </c>
       <c r="D24">
-        <v>0.1218751398888998</v>
+        <v>0.08952996392605428</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.952056042176537</v>
+        <v>3.615475108993706</v>
       </c>
       <c r="G24">
-        <v>0.000813176165241928</v>
+        <v>0.002548707628772973</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.001428421758234</v>
+        <v>1.885032700552117</v>
       </c>
       <c r="J24">
-        <v>0.6084392312367157</v>
+        <v>0.395576292187144</v>
       </c>
       <c r="K24">
-        <v>1.796236089809724</v>
+        <v>0.8990404609082816</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.056128778701861</v>
+        <v>0.5800886751059124</v>
       </c>
       <c r="C25">
-        <v>0.4061021436523902</v>
+        <v>0.2443369323956688</v>
       </c>
       <c r="D25">
-        <v>0.09820337195272089</v>
+        <v>0.08622455646903404</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.442656100117546</v>
+        <v>3.499570460167689</v>
       </c>
       <c r="G25">
-        <v>0.0008270334889447453</v>
+        <v>0.002556401502727978</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.779566589077433</v>
+        <v>1.831085121459367</v>
       </c>
       <c r="J25">
-        <v>0.5003011692517276</v>
+        <v>0.3724982288705547</v>
       </c>
       <c r="K25">
-        <v>1.452730187455273</v>
+        <v>0.8225965427106416</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_252/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_252/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5403633160001675</v>
+        <v>0.8773162445649234</v>
       </c>
       <c r="C2">
-        <v>0.2294126817136259</v>
+        <v>0.339848459939958</v>
       </c>
       <c r="D2">
-        <v>0.08405762848991571</v>
+        <v>0.08132100573578072</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.418410032993052</v>
+        <v>3.087627976810126</v>
       </c>
       <c r="G2">
-        <v>0.002562522143272855</v>
+        <v>0.0008375584288809188</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.793102721377323</v>
+        <v>1.625445136507849</v>
       </c>
       <c r="J2">
-        <v>0.3562383099905162</v>
+        <v>0.4242713101665885</v>
       </c>
       <c r="K2">
-        <v>0.7682098671597259</v>
+        <v>1.208574860946641</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5142995554442678</v>
+        <v>0.7588948777491282</v>
       </c>
       <c r="C3">
-        <v>0.2196148699795515</v>
+        <v>0.2963198934556885</v>
       </c>
       <c r="D3">
-        <v>0.08275542837323968</v>
+        <v>0.07013858257551675</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.365981028969955</v>
+        <v>2.857106378800026</v>
       </c>
       <c r="G3">
-        <v>0.002566957033344344</v>
+        <v>0.0008449231342472985</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.768429233866755</v>
+        <v>1.525661756075678</v>
       </c>
       <c r="J3">
-        <v>0.3456689397605714</v>
+        <v>0.3744916783912089</v>
       </c>
       <c r="K3">
-        <v>0.7325232995724775</v>
+        <v>1.047268824904478</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4987180274170555</v>
+        <v>0.6872878416572519</v>
       </c>
       <c r="C4">
-        <v>0.2137535101394121</v>
+        <v>0.2701483392661146</v>
       </c>
       <c r="D4">
-        <v>0.08203794720451185</v>
+        <v>0.06337636266886904</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.335049297300969</v>
+        <v>2.719832666861265</v>
       </c>
       <c r="G4">
-        <v>0.002569822436095227</v>
+        <v>0.0008495686144094655</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.753800959148847</v>
+        <v>1.466375501127999</v>
       </c>
       <c r="J4">
-        <v>0.3393993371741573</v>
+        <v>0.3446445535626168</v>
       </c>
       <c r="K4">
-        <v>0.7111861989267538</v>
+        <v>0.9498977799072748</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4924743911035137</v>
+        <v>0.6583503041899803</v>
       </c>
       <c r="C5">
-        <v>0.2114036467890799</v>
+        <v>0.2596064212110321</v>
       </c>
       <c r="D5">
-        <v>0.08176622478332263</v>
+        <v>0.06064360849808992</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.322760078369711</v>
+        <v>2.664869860484345</v>
       </c>
       <c r="G5">
-        <v>0.002571026029129726</v>
+        <v>0.0008514939887519842</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.747970301765008</v>
+        <v>1.442670550931282</v>
       </c>
       <c r="J5">
-        <v>0.3368995280341096</v>
+        <v>0.3326426944616827</v>
       </c>
       <c r="K5">
-        <v>0.7026353740993443</v>
+        <v>0.9105873347585032</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4914440377148424</v>
+        <v>0.6535589542809817</v>
       </c>
       <c r="C6">
-        <v>0.211015785521198</v>
+        <v>0.2578629299095496</v>
       </c>
       <c r="D6">
-        <v>0.08172235368840575</v>
+        <v>0.0601911313278265</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.320738499371359</v>
+        <v>2.655799692507884</v>
       </c>
       <c r="G6">
-        <v>0.002571228057680952</v>
+        <v>0.0008518156815319234</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.747009988539972</v>
+        <v>1.438760611928302</v>
       </c>
       <c r="J6">
-        <v>0.3364877583382651</v>
+        <v>0.3306589851843</v>
       </c>
       <c r="K6">
-        <v>0.701224218883624</v>
+        <v>0.9040807309172862</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4986333946210664</v>
+        <v>0.6868966403463332</v>
       </c>
       <c r="C7">
-        <v>0.213721662638136</v>
+        <v>0.2700056891643214</v>
       </c>
       <c r="D7">
-        <v>0.08203419899599851</v>
+        <v>0.06333941909757357</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.334882283756627</v>
+        <v>2.71908758338617</v>
       </c>
       <c r="G7">
-        <v>0.002569838522635991</v>
+        <v>0.0008495944482533238</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.753721797366723</v>
+        <v>1.466054022076406</v>
       </c>
       <c r="J7">
-        <v>0.3393654010487808</v>
+        <v>0.3444820646170399</v>
       </c>
       <c r="K7">
-        <v>0.7110702959350022</v>
+        <v>0.9493661961259079</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5312889391630051</v>
+        <v>0.8362335912715366</v>
       </c>
       <c r="C8">
-        <v>0.2260022149123415</v>
+        <v>0.3247142908446392</v>
       </c>
       <c r="D8">
-        <v>0.08359160512893737</v>
+        <v>0.07744174208617238</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.40007033929173</v>
+        <v>3.007198444181682</v>
       </c>
       <c r="G8">
-        <v>0.00256402181874682</v>
+        <v>0.0008400729191104571</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.784486718412424</v>
+        <v>1.59060141578442</v>
       </c>
       <c r="J8">
-        <v>0.3525481832290041</v>
+        <v>0.4069461473588518</v>
       </c>
       <c r="K8">
-        <v>0.7557857019419885</v>
+        <v>1.152577442772412</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5986810493199073</v>
+        <v>1.139573687414071</v>
       </c>
       <c r="C9">
-        <v>0.2513198730108002</v>
+        <v>0.4372199658793932</v>
       </c>
       <c r="D9">
-        <v>0.08729651905011337</v>
+        <v>0.1060803667155881</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.537959364043047</v>
+        <v>3.610787083703798</v>
       </c>
       <c r="G9">
-        <v>0.002553739372163563</v>
+        <v>0.0008223200833342923</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.848984991112914</v>
+        <v>1.852709200281708</v>
       </c>
       <c r="J9">
-        <v>0.3801574325953254</v>
+        <v>0.5360983683973046</v>
       </c>
       <c r="K9">
-        <v>0.8480501159391736</v>
+        <v>1.566890090379246</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6502576733289231</v>
+        <v>1.371516693469658</v>
       </c>
       <c r="C10">
-        <v>0.2706892992007965</v>
+        <v>0.5243325033733868</v>
       </c>
       <c r="D10">
-        <v>0.09041542087480536</v>
+        <v>0.1279704191121169</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.645491386753747</v>
+        <v>4.085105352962103</v>
       </c>
       <c r="G10">
-        <v>0.002546862435469042</v>
+        <v>0.0008097432478397631</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.898962735687391</v>
+        <v>2.059491733019655</v>
       </c>
       <c r="J10">
-        <v>0.4015328741461133</v>
+        <v>0.6365445315990428</v>
       </c>
       <c r="K10">
-        <v>0.9186621139127737</v>
+        <v>1.884891137093632</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6741738695352808</v>
+        <v>1.479686051666192</v>
       </c>
       <c r="C11">
-        <v>0.2796713322285029</v>
+        <v>0.565253966100471</v>
       </c>
       <c r="D11">
-        <v>0.0919205681261559</v>
+        <v>0.1381767348762395</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.695783593004535</v>
+        <v>4.309441050400096</v>
       </c>
       <c r="G11">
-        <v>0.002543879425119745</v>
+        <v>0.000804099386919472</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.922272585356311</v>
+        <v>2.157486616977565</v>
       </c>
       <c r="J11">
-        <v>0.4114983735017574</v>
+        <v>0.6838282997397442</v>
       </c>
       <c r="K11">
-        <v>0.9514070552000078</v>
+        <v>2.033520065429798</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6832958054264395</v>
+        <v>1.52109345320082</v>
       </c>
       <c r="C12">
-        <v>0.2830973940926071</v>
+        <v>0.5809667556586646</v>
       </c>
       <c r="D12">
-        <v>0.09250294307778972</v>
+        <v>0.1420833479664481</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.715027189942873</v>
+        <v>4.395798294810618</v>
       </c>
       <c r="G12">
-        <v>0.002542770611540796</v>
+        <v>0.0008019711299884919</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.931182842852209</v>
+        <v>2.195238805469089</v>
       </c>
       <c r="J12">
-        <v>0.4153071114753288</v>
+        <v>0.7019983517482444</v>
       </c>
       <c r="K12">
-        <v>0.963896830646064</v>
+        <v>2.090468117755705</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6813283225964426</v>
+        <v>1.512154691713278</v>
       </c>
       <c r="C13">
-        <v>0.2823584258589733</v>
+        <v>0.5775725562991454</v>
       </c>
       <c r="D13">
-        <v>0.09237696645288906</v>
+        <v>0.141240031073167</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.710873864969329</v>
+        <v>4.377134175489488</v>
       </c>
       <c r="G13">
-        <v>0.002543008491482815</v>
+        <v>0.0008024291275146207</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.929260142790952</v>
+        <v>2.187078215551921</v>
       </c>
       <c r="J13">
-        <v>0.4144852698669581</v>
+        <v>0.6980727110883009</v>
       </c>
       <c r="K13">
-        <v>0.9612029263642512</v>
+        <v>2.078172103313108</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6749230252810605</v>
+        <v>1.483083331336417</v>
       </c>
       <c r="C14">
-        <v>0.2799526989822141</v>
+        <v>0.5665421337685643</v>
       </c>
       <c r="D14">
-        <v>0.09196823182051617</v>
+        <v>0.1384972616276627</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.697362779208845</v>
+        <v>4.316516457578075</v>
       </c>
       <c r="G14">
-        <v>0.002543787786143428</v>
+        <v>0.0008039241279346517</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.923003963777347</v>
+        <v>2.160579128243498</v>
       </c>
       <c r="J14">
-        <v>0.4118110172997262</v>
+        <v>0.6853176333270881</v>
       </c>
       <c r="K14">
-        <v>0.9524327911456112</v>
+        <v>2.038191294018674</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6710081161056678</v>
+        <v>1.465336394700444</v>
       </c>
       <c r="C15">
-        <v>0.2784823524781359</v>
+        <v>0.5598148814305262</v>
       </c>
       <c r="D15">
-        <v>0.09171948578780587</v>
+        <v>0.1368228570387089</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.689112806132329</v>
+        <v>4.279575011728696</v>
       </c>
       <c r="G15">
-        <v>0.002544267830702575</v>
+        <v>0.0008048409556300868</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.919182744859157</v>
+        <v>2.144433989871857</v>
       </c>
       <c r="J15">
-        <v>0.4101775288523868</v>
+        <v>0.6775403985080004</v>
       </c>
       <c r="K15">
-        <v>0.947072558736437</v>
+        <v>2.013791572184005</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6487038361024418</v>
+        <v>1.364506334803053</v>
       </c>
       <c r="C16">
-        <v>0.2701057560375943</v>
+        <v>0.5216867589603851</v>
       </c>
       <c r="D16">
-        <v>0.0903187927145126</v>
+        <v>0.1273089061570261</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.642232455445338</v>
+        <v>4.070631303821443</v>
       </c>
       <c r="G16">
-        <v>0.002547060297254788</v>
+        <v>0.0008101134641552423</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.897451005024394</v>
+        <v>2.05317311248055</v>
       </c>
       <c r="J16">
-        <v>0.4008864914073911</v>
+        <v>0.6334894086616032</v>
       </c>
       <c r="K16">
-        <v>0.9165347258729071</v>
+        <v>1.875265595505653</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6351371945945914</v>
+        <v>1.303374099698516</v>
       </c>
       <c r="C17">
-        <v>0.2650108700676697</v>
+        <v>0.4986483890788804</v>
       </c>
       <c r="D17">
-        <v>0.0894816214777876</v>
+        <v>0.1215400651826002</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.61382602857401</v>
+        <v>3.944762859656862</v>
       </c>
       <c r="G17">
-        <v>0.00254881053079501</v>
+        <v>0.0008133663270590482</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.884266968601295</v>
+        <v>1.998246910647339</v>
       </c>
       <c r="J17">
-        <v>0.3952488327885391</v>
+        <v>0.6068971635338585</v>
       </c>
       <c r="K17">
-        <v>0.897960622251361</v>
+        <v>1.791364837611866</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6273767192594164</v>
+        <v>1.268458330420401</v>
       </c>
       <c r="C18">
-        <v>0.2620964890664652</v>
+        <v>0.4855170345798285</v>
       </c>
       <c r="D18">
-        <v>0.08900823011617831</v>
+        <v>0.1182449649845694</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.597616781726515</v>
+        <v>3.873161352599368</v>
       </c>
       <c r="G18">
-        <v>0.002549830905870624</v>
+        <v>0.0008152447176490779</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.87673791439272</v>
+        <v>1.967019357959984</v>
       </c>
       <c r="J18">
-        <v>0.3920289349961052</v>
+        <v>0.5917492960295334</v>
       </c>
       <c r="K18">
-        <v>0.8873359241087257</v>
+        <v>1.743474584802698</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6247564848093532</v>
+        <v>1.256676854141119</v>
       </c>
       <c r="C19">
-        <v>0.2611124824087199</v>
+        <v>0.4810906676797515</v>
       </c>
       <c r="D19">
-        <v>0.0888493440832292</v>
+        <v>0.1171330776036115</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.592150792067514</v>
+        <v>3.849049814162441</v>
       </c>
       <c r="G19">
-        <v>0.002550178741489517</v>
+        <v>0.0008158820469324103</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.874197969348486</v>
+        <v>1.956506603125291</v>
       </c>
       <c r="J19">
-        <v>0.3909426296285545</v>
+        <v>0.5866447571559377</v>
       </c>
       <c r="K19">
-        <v>0.8837486436488007</v>
+        <v>1.727320134828886</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6365769666418544</v>
+        <v>1.309855844356861</v>
       </c>
       <c r="C20">
-        <v>0.2655515654996634</v>
+        <v>0.5010882631522691</v>
       </c>
       <c r="D20">
-        <v>0.08956989869209053</v>
+        <v>0.1221517482991743</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.61683654200408</v>
+        <v>3.958078323913554</v>
       </c>
       <c r="G20">
-        <v>0.002548622799659998</v>
+        <v>0.0008130193003409866</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.885664832434841</v>
+        <v>2.004055627993353</v>
       </c>
       <c r="J20">
-        <v>0.3958466163606005</v>
+        <v>0.6097124624084529</v>
       </c>
       <c r="K20">
-        <v>0.8999317962104669</v>
+        <v>1.800257557187592</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6768026404566569</v>
+        <v>1.491609642455842</v>
       </c>
       <c r="C21">
-        <v>0.280658645645758</v>
+        <v>0.5697758906934496</v>
       </c>
       <c r="D21">
-        <v>0.09208795038445317</v>
+        <v>0.1393016963864682</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.701325900916743</v>
+        <v>4.334281693760175</v>
       </c>
       <c r="G21">
-        <v>0.002543558325214231</v>
+        <v>0.000803484785832605</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.924839288403419</v>
+        <v>2.168344410125229</v>
       </c>
       <c r="J21">
-        <v>0.4125955575645008</v>
+        <v>0.6890566152947173</v>
       </c>
       <c r="K21">
-        <v>0.9550063475446962</v>
+        <v>2.049915752229424</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7034736695147217</v>
+        <v>1.613031373536501</v>
       </c>
       <c r="C22">
-        <v>0.2906764179596735</v>
+        <v>0.6159475656311599</v>
       </c>
       <c r="D22">
-        <v>0.09380596564911059</v>
+        <v>0.1507565798625876</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.757705272303582</v>
+        <v>4.58844520171516</v>
       </c>
       <c r="G22">
-        <v>0.002540369513800956</v>
+        <v>0.0007973044010152197</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.950928050066707</v>
+        <v>2.279511846645903</v>
       </c>
       <c r="J22">
-        <v>0.4237462051919039</v>
+        <v>0.7424756242541548</v>
       </c>
       <c r="K22">
-        <v>0.9915253826034416</v>
+        <v>2.217013530108886</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6892039065488405</v>
+        <v>1.547962021103302</v>
       </c>
       <c r="C23">
-        <v>0.2853164618238395</v>
+        <v>0.5911765437928409</v>
       </c>
       <c r="D23">
-        <v>0.09288241315186951</v>
+        <v>0.1446181742446697</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.727507918851927</v>
+        <v>4.451971338437232</v>
       </c>
       <c r="G23">
-        <v>0.00254206039755825</v>
+        <v>0.000800599112461331</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.936959293456539</v>
+        <v>2.219803912351551</v>
       </c>
       <c r="J23">
-        <v>0.4177761181758655</v>
+        <v>0.7138087776834965</v>
       </c>
       <c r="K23">
-        <v>0.9719863589715487</v>
+        <v>2.127436119323079</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6359259237089532</v>
+        <v>1.30692473603213</v>
       </c>
       <c r="C24">
-        <v>0.2653070712083831</v>
+        <v>0.4999848441704557</v>
       </c>
       <c r="D24">
-        <v>0.08952996392605428</v>
+        <v>0.1218751398890419</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.615475108993706</v>
+        <v>3.952056042176537</v>
       </c>
       <c r="G24">
-        <v>0.002548707628772973</v>
+        <v>0.0008131761652424457</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.885032700552117</v>
+        <v>2.001428421758234</v>
       </c>
       <c r="J24">
-        <v>0.395576292187144</v>
+        <v>0.6084392312367441</v>
       </c>
       <c r="K24">
-        <v>0.8990404609082816</v>
+        <v>1.796236089809696</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5800886751059124</v>
+        <v>1.056128778701833</v>
       </c>
       <c r="C25">
-        <v>0.2443369323956688</v>
+        <v>0.4061021436523617</v>
       </c>
       <c r="D25">
-        <v>0.08622455646903404</v>
+        <v>0.09820337195236561</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.499570460167689</v>
+        <v>3.442656100117517</v>
       </c>
       <c r="G25">
-        <v>0.002556401502727978</v>
+        <v>0.0008270334889447453</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.831085121459367</v>
+        <v>1.779566589077433</v>
       </c>
       <c r="J25">
-        <v>0.3724982288705547</v>
+        <v>0.5003011692517276</v>
       </c>
       <c r="K25">
-        <v>0.8225965427106416</v>
+        <v>1.452730187455273</v>
       </c>
       <c r="L25">
         <v>0</v>
